--- a/classfiers/bottleneck/svm/bottleneck-svm-default-results.xlsx
+++ b/classfiers/bottleneck/svm/bottleneck-svm-default-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>0.1958762886597938</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>0.3275862068965517</v>
       </c>
       <c r="E2" t="n">
-        <v>0.766355140186916</v>
+        <v>0.9938800489596084</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8271028037383177</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>0.6153846153846153</v>
       </c>
       <c r="E4" t="n">
-        <v>0.748062015503876</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>0.9411764705882353</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5794392523364487</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6079958463136033</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>0.8391752577319588</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>0.6777777777777778</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>0.5978820901528278</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7057910116158321</v>
+        <v>0.9987760097919217</v>
       </c>
     </row>
   </sheetData>

--- a/classfiers/bottleneck/svm/bottleneck-svm-default-results.xlsx
+++ b/classfiers/bottleneck/svm/bottleneck-svm-default-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1958762886597938</v>
+        <v>0.1408450704225352</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3275862068965517</v>
+        <v>0.2469135802469136</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9938800489596084</v>
+        <v>0.9916256157635468</v>
       </c>
     </row>
     <row r="3">
@@ -489,10 +489,10 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0.7499999999999999</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -508,10 +508,10 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6153846153846153</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -527,10 +527,10 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8888888888888888</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9411764705882353</v>
+        <v>0.8750000000000001</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -543,13 +543,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.05555555555555555</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1052631578947368</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8391752577319588</v>
+        <v>0.628169014084507</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6777777777777778</v>
+        <v>0.5866666666666667</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5978820901528278</v>
+        <v>0.5172398589065256</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9987760097919217</v>
+        <v>0.9983251231527094</v>
       </c>
     </row>
   </sheetData>
